--- a/QMS/wwwroot/templates/15.Customer RCA.xlsx
+++ b/QMS/wwwroot/templates/15.Customer RCA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Saibex\Wipro\QMS\Project\QMS Latest\QMS\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73F83AE-56EB-41D6-97B0-8FA521517B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C06FCCB-5060-48C7-A3B6-BAAD6A0E9CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CD9715C4-5B04-42CC-A3F5-D5ADEF2F05BA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$2:$I$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$2:$I$57</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -236,11 +236,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Date:- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-7. Analysis of Defectives 100nos samples:
-</t>
   </si>
   <si>
     <r>
@@ -394,6 +389,10 @@
       </rPr>
       <t xml:space="preserve">ystem/Process Improvements. </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Analysis of Defectives 100nos samples:
+</t>
   </si>
 </sst>
 </file>
@@ -586,7 +585,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -978,85 +977,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1065,9 +990,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1088,12 +1010,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1112,6 +1028,369 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1130,30 +1409,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1163,374 +1418,23 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1616,7 +1520,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>1362075</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1970,10 +1874,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J61"/>
+  <dimension ref="B1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:I12"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="1"/>
@@ -1991,764 +1895,707 @@
   <sheetData>
     <row r="1" spans="2:9" ht="7.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" outlineLevel="1">
-      <c r="B2" s="128"/>
-      <c r="C2" s="105" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="12" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="108" t="s">
+      <c r="H2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="109"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="2:9" outlineLevel="1">
-      <c r="B3" s="129"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
       <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="110">
+      <c r="H3" s="61">
         <v>45108</v>
       </c>
-      <c r="I3" s="111"/>
+      <c r="I3" s="62"/>
     </row>
     <row r="4" spans="2:9" outlineLevel="1">
-      <c r="B4" s="129"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
       <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="112">
+      <c r="H4" s="63">
         <v>0</v>
       </c>
-      <c r="I4" s="113"/>
+      <c r="I4" s="64"/>
     </row>
     <row r="5" spans="2:9" ht="14.1" customHeight="1" outlineLevel="1">
-      <c r="B5" s="129"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
       <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="110">
+      <c r="H5" s="61">
         <v>45108</v>
       </c>
-      <c r="I5" s="111"/>
+      <c r="I5" s="62"/>
     </row>
     <row r="6" spans="2:9" outlineLevel="1">
-      <c r="B6" s="130"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="5" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="114" t="s">
+      <c r="H6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="115"/>
+      <c r="I6" s="68"/>
     </row>
     <row r="7" spans="2:9" ht="12" customHeight="1" thickBot="1">
-      <c r="B7" s="125"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="127"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="80"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="118"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="71"/>
     </row>
     <row r="9" spans="2:9" ht="14.4" thickBot="1">
-      <c r="B9" s="119"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="121"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="74"/>
     </row>
     <row r="10" spans="2:9" ht="9.75" customHeight="1" thickBot="1">
-      <c r="B10" s="122"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="124"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="77"/>
     </row>
     <row r="11" spans="2:9" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="157" t="s">
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="65"/>
+      <c r="I11" s="66"/>
+    </row>
+    <row r="12" spans="2:9" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B12" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="157"/>
-      <c r="I11" s="158"/>
-    </row>
-    <row r="12" spans="2:9" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B12" s="149" t="s">
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="150" t="s">
+      <c r="G12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="88"/>
+    </row>
+    <row r="13" spans="2:9" ht="17.25" customHeight="1">
+      <c r="B13" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+    </row>
+    <row r="14" spans="2:9" ht="16.5" customHeight="1">
+      <c r="B14" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" spans="2:9" ht="18" customHeight="1">
+      <c r="B15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="2:9" ht="16.5" customHeight="1">
+      <c r="B16" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="2:9" ht="19.5" customHeight="1">
+      <c r="B17" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="2:9" ht="16.5" customHeight="1">
+      <c r="B18" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="2:9" ht="19.5" customHeight="1" thickBot="1">
+      <c r="B19" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="111"/>
+    </row>
+    <row r="20" spans="2:9" ht="88.5" customHeight="1" thickBot="1">
+      <c r="B20" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="151" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="77"/>
-    </row>
-    <row r="13" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B13" s="134" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="135"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="136"/>
-    </row>
-    <row r="14" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B14" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="88"/>
-    </row>
-    <row r="15" spans="2:9" ht="18" customHeight="1">
-      <c r="B15" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="88"/>
-    </row>
-    <row r="16" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B16" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="88"/>
-    </row>
-    <row r="17" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B17" s="89" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="88"/>
-    </row>
-    <row r="18" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B18" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="88"/>
-    </row>
-    <row r="19" spans="2:9" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B19" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="104"/>
-    </row>
-    <row r="20" spans="2:9" ht="88.5" customHeight="1" thickBot="1">
-      <c r="B20" s="159" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="160"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="161"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="32"/>
     </row>
     <row r="21" spans="2:9" ht="24.75" customHeight="1" thickBot="1">
-      <c r="B21" s="101" t="s">
+      <c r="B21" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="103"/>
-    </row>
-    <row r="22" spans="2:9" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B22" s="98"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="100"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="2:9" ht="90.6" customHeight="1" thickBot="1">
+      <c r="B22" s="108"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="110"/>
     </row>
     <row r="23" spans="2:9" ht="18" customHeight="1" thickBot="1">
-      <c r="B23" s="101" t="s">
+      <c r="B23" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="103"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
     </row>
     <row r="24" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B24" s="96"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="93"/>
-    </row>
-    <row r="25" spans="2:9" ht="29.1" customHeight="1" thickBot="1">
-      <c r="B25" s="97"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="95"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="103"/>
+    </row>
+    <row r="25" spans="2:9" ht="60.6" customHeight="1" thickBot="1">
+      <c r="B25" s="107"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="105"/>
     </row>
     <row r="26" spans="2:9" ht="14.4" thickBot="1">
-      <c r="B26" s="84" t="s">
+      <c r="B26" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="86"/>
-    </row>
-    <row r="27" spans="2:9" ht="7.5" customHeight="1">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="2:9" ht="35.549999999999997" customHeight="1">
-      <c r="B28" s="162" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="83"/>
-    </row>
-    <row r="29" spans="2:9" ht="34.5" customHeight="1">
-      <c r="B29" s="137" t="s">
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="99"/>
+    </row>
+    <row r="27" spans="2:9" ht="7.2" customHeight="1">
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="2:9" ht="75.599999999999994" customHeight="1">
+      <c r="B28" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="138"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="138"/>
-      <c r="I29" s="139"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="96"/>
+    </row>
+    <row r="29" spans="2:9" ht="88.2" customHeight="1">
+      <c r="B29" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="38"/>
     </row>
     <row r="30" spans="2:9" ht="21" customHeight="1">
-      <c r="B30" s="140" t="s">
+      <c r="B30" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="139"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="41"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="141" t="s">
+      <c r="B31" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="142"/>
-      <c r="D31" s="142"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="143"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="44"/>
     </row>
     <row r="32" spans="2:9" ht="15" customHeight="1" thickBot="1">
-      <c r="B32" s="144"/>
-      <c r="C32" s="145"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="146"/>
-    </row>
-    <row r="33" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="47"/>
+    </row>
+    <row r="33" spans="2:10" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="147" t="s">
+      <c r="C33" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147" t="s">
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="148"/>
-    </row>
-    <row r="34" spans="2:10" s="6" customFormat="1" ht="19.05" customHeight="1">
+      <c r="I33" s="49"/>
+    </row>
+    <row r="34" spans="2:10" s="5" customFormat="1" ht="19.05" customHeight="1">
       <c r="B34" s="3">
         <v>1</v>
       </c>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="72"/>
-    </row>
-    <row r="35" spans="2:10" s="6" customFormat="1" ht="19.05" customHeight="1">
-      <c r="B35" s="3">
-        <v>2</v>
-      </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="72"/>
-    </row>
-    <row r="36" spans="2:10" s="6" customFormat="1" ht="19.05" customHeight="1">
-      <c r="B36" s="3">
-        <v>3</v>
-      </c>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="72"/>
-    </row>
-    <row r="37" spans="2:10" s="6" customFormat="1" ht="19.05" customHeight="1">
-      <c r="B37" s="3">
-        <v>4</v>
-      </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="72"/>
-    </row>
-    <row r="38" spans="2:10" s="6" customFormat="1" ht="19.05" customHeight="1" thickBot="1">
-      <c r="B38" s="4">
-        <v>5</v>
-      </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="16"/>
-    </row>
-    <row r="39" spans="2:10" ht="14.4" thickBot="1">
-      <c r="B39" s="63"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="65"/>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="66" t="s">
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="52"/>
+    </row>
+    <row r="35" spans="2:10" ht="14.4" thickBot="1">
+      <c r="B35" s="53"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="55"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="10"/>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="21"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="2:10" ht="13.05" customHeight="1" thickBot="1">
-      <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="2:10" ht="13.5" hidden="1" customHeight="1" thickBot="1">
-      <c r="B43" s="8"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="2:10" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B44" s="68" t="s">
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="2:10" ht="13.05" customHeight="1" thickBot="1">
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="2:10" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+      <c r="B39" s="7"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="2:10" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B40" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="70"/>
-    </row>
-    <row r="45" spans="2:10" ht="78" customHeight="1">
-      <c r="B45" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="47"/>
-    </row>
-    <row r="46" spans="2:10" ht="90" customHeight="1">
-      <c r="B46" s="52" t="s">
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="116"/>
+    </row>
+    <row r="41" spans="2:10" ht="124.2" customHeight="1">
+      <c r="B41" s="153" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="154"/>
+      <c r="D41" s="154"/>
+      <c r="E41" s="154"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="155"/>
+    </row>
+    <row r="42" spans="2:10" ht="178.8" customHeight="1">
+      <c r="B42" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="152"/>
-    </row>
-    <row r="47" spans="2:10" ht="9" customHeight="1" thickBot="1">
-      <c r="B47" s="17"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="152"/>
-    </row>
-    <row r="48" spans="2:10" ht="18" customHeight="1" thickBot="1">
-      <c r="B48" s="32" t="s">
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="23"/>
+    </row>
+    <row r="43" spans="2:10" ht="9" customHeight="1" thickBot="1">
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="23"/>
+    </row>
+    <row r="44" spans="2:10" ht="18" customHeight="1" thickBot="1">
+      <c r="B44" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="19"/>
-    </row>
-    <row r="49" spans="2:10" ht="93.6" customHeight="1" thickBot="1">
-      <c r="B49" s="55"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="57"/>
-    </row>
-    <row r="50" spans="2:10" ht="14.4" thickBot="1">
-      <c r="B50" s="29" t="s">
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="121"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="16"/>
+    </row>
+    <row r="45" spans="2:10" ht="93.6" customHeight="1" thickBot="1">
+      <c r="B45" s="122"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="124"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="122"/>
+      <c r="I45" s="124"/>
+    </row>
+    <row r="46" spans="2:10" ht="14.4" thickBot="1">
+      <c r="B46" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="31"/>
-    </row>
-    <row r="51" spans="2:10" ht="31.5" customHeight="1" thickBot="1">
-      <c r="B51" s="153" t="s">
+      <c r="C46" s="126"/>
+      <c r="D46" s="126"/>
+      <c r="E46" s="126"/>
+      <c r="F46" s="126"/>
+      <c r="G46" s="126"/>
+      <c r="H46" s="126"/>
+      <c r="I46" s="127"/>
+    </row>
+    <row r="47" spans="2:10" ht="31.5" customHeight="1" thickBot="1">
+      <c r="B47" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="154" t="s">
+      <c r="D47" s="129"/>
+      <c r="E47" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="40"/>
-      <c r="E51" s="155" t="s">
+      <c r="F47" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F51" s="155" t="s">
+      <c r="G47" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G51" s="155" t="s">
+      <c r="H47" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="H51" s="156" t="s">
-        <v>50</v>
-      </c>
-      <c r="I51" s="41"/>
-    </row>
-    <row r="52" spans="2:10" ht="21" customHeight="1" thickBot="1">
-      <c r="B52" s="42" t="s">
+      <c r="I47" s="131"/>
+    </row>
+    <row r="48" spans="2:10" ht="21" customHeight="1" thickBot="1">
+      <c r="B48" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="44"/>
-    </row>
-    <row r="53" spans="2:10" ht="54.75" customHeight="1">
-      <c r="B53" s="45" t="s">
+      <c r="C48" s="133"/>
+      <c r="D48" s="133"/>
+      <c r="E48" s="133"/>
+      <c r="F48" s="133"/>
+      <c r="G48" s="133"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="134"/>
+    </row>
+    <row r="49" spans="2:10" ht="109.2" customHeight="1">
+      <c r="B49" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="152"/>
-    </row>
-    <row r="54" spans="2:10" ht="8.1" customHeight="1" thickBot="1">
-      <c r="B54" s="48"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="152"/>
-    </row>
-    <row r="55" spans="2:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B55" s="29" t="s">
+      <c r="C49" s="136"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="136"/>
+      <c r="I49" s="137"/>
+      <c r="J49" s="23"/>
+    </row>
+    <row r="50" spans="2:10" ht="8.1" customHeight="1" thickBot="1">
+      <c r="B50" s="138"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="139"/>
+      <c r="G50" s="139"/>
+      <c r="H50" s="139"/>
+      <c r="I50" s="140"/>
+      <c r="J50" s="23"/>
+    </row>
+    <row r="51" spans="2:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B51" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="31"/>
-    </row>
-    <row r="56" spans="2:10" ht="40.049999999999997" customHeight="1" thickBot="1">
-      <c r="B56" s="32"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="19"/>
-    </row>
-    <row r="57" spans="2:10" ht="14.4" thickBot="1">
-      <c r="B57" s="29" t="s">
+      <c r="C51" s="126"/>
+      <c r="D51" s="126"/>
+      <c r="E51" s="126"/>
+      <c r="F51" s="126"/>
+      <c r="G51" s="126"/>
+      <c r="H51" s="126"/>
+      <c r="I51" s="127"/>
+    </row>
+    <row r="52" spans="2:10" ht="84" customHeight="1" thickBot="1">
+      <c r="B52" s="150"/>
+      <c r="C52" s="151"/>
+      <c r="D52" s="151"/>
+      <c r="E52" s="151"/>
+      <c r="F52" s="151"/>
+      <c r="G52" s="151"/>
+      <c r="H52" s="151"/>
+      <c r="I52" s="152"/>
+    </row>
+    <row r="53" spans="2:10" ht="23.4" customHeight="1" thickBot="1">
+      <c r="B53" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="31"/>
-    </row>
-    <row r="58" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B58" s="34"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="36"/>
-    </row>
-    <row r="59" spans="2:10" ht="14.4" thickBot="1">
-      <c r="B59" s="37"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="39"/>
-    </row>
-    <row r="60" spans="2:10" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B60" s="23" t="s">
+      <c r="C53" s="126"/>
+      <c r="D53" s="126"/>
+      <c r="E53" s="126"/>
+      <c r="F53" s="126"/>
+      <c r="G53" s="126"/>
+      <c r="H53" s="126"/>
+      <c r="I53" s="127"/>
+    </row>
+    <row r="54" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B54" s="117"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="118"/>
+      <c r="E54" s="118"/>
+      <c r="F54" s="118"/>
+      <c r="G54" s="118"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="119"/>
+    </row>
+    <row r="55" spans="2:10" ht="90.6" customHeight="1" thickBot="1">
+      <c r="B55" s="147"/>
+      <c r="C55" s="148"/>
+      <c r="D55" s="148"/>
+      <c r="E55" s="148"/>
+      <c r="F55" s="148"/>
+      <c r="G55" s="148"/>
+      <c r="H55" s="148"/>
+      <c r="I55" s="149"/>
+    </row>
+    <row r="56" spans="2:10" ht="32.25" customHeight="1" thickBot="1">
+      <c r="B56" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="23" t="s">
+      <c r="C56" s="142"/>
+      <c r="D56" s="142"/>
+      <c r="E56" s="142"/>
+      <c r="F56" s="143"/>
+      <c r="G56" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="H60" s="24"/>
-      <c r="I60" s="25"/>
-    </row>
-    <row r="61" spans="2:10" ht="7.5" customHeight="1" thickBot="1">
-      <c r="B61" s="26"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="28"/>
+      <c r="H56" s="142"/>
+      <c r="I56" s="143"/>
+    </row>
+    <row r="57" spans="2:10" ht="7.5" customHeight="1" thickBot="1">
+      <c r="B57" s="144"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145"/>
+      <c r="G57" s="145"/>
+      <c r="H57" s="145"/>
+      <c r="I57" s="146"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C2:F6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B11:F11"/>
+  <mergeCells count="63">
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B49:I50"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B54:I55"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B44:F44"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B19:G19"/>
@@ -2764,35 +2611,34 @@
     <mergeCell ref="B23:I23"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:I54"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:I59"/>
+    <mergeCell ref="C2:F6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="B35:I35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -2800,14 +2646,26 @@
     <oddFooter>&amp;L&amp;"Calibri"&amp;11&amp;K000000_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000Public</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="38" min="1" max="8" man="1"/>
-    <brk id="51" min="1" max="8" man="1"/>
+    <brk id="34" min="1" max="8" man="1"/>
+    <brk id="47" min="1" max="8" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Contents xmlns="9afaa7bc-d967-44e9-be1f-69e7c3ed583e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9afaa7bc-d967-44e9-be1f-69e7c3ed583e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4fded93d-f5c9-42fd-b347-75c7bd2a538e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F15E3AA942692E4BA77BEBDF164C0CF6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="adcbfb49f0c49ac4c324183689b630f2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9afaa7bc-d967-44e9-be1f-69e7c3ed583e" xmlns:ns3="4fded93d-f5c9-42fd-b347-75c7bd2a538e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="163db6973df78583e9d8f56c0814a4d6" ns2:_="" ns3:_="">
     <xsd:import namespace="9afaa7bc-d967-44e9-be1f-69e7c3ed583e"/>
@@ -3030,18 +2888,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Contents xmlns="9afaa7bc-d967-44e9-be1f-69e7c3ed583e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9afaa7bc-d967-44e9-be1f-69e7c3ed583e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4fded93d-f5c9-42fd-b347-75c7bd2a538e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3052,6 +2898,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76CDBCBC-6537-443B-9782-B3924B6294C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9afaa7bc-d967-44e9-be1f-69e7c3ed583e"/>
+    <ds:schemaRef ds:uri="4fded93d-f5c9-42fd-b347-75c7bd2a538e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF428F19-4A0A-4630-BA52-CD821F240171}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3070,17 +2927,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76CDBCBC-6537-443B-9782-B3924B6294C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9afaa7bc-d967-44e9-be1f-69e7c3ed583e"/>
-    <ds:schemaRef ds:uri="4fded93d-f5c9-42fd-b347-75c7bd2a538e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F10EBFF8-2BA6-4767-AA4C-18C91739CC4C}">
   <ds:schemaRefs>
